--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T08:32:40+00:00</t>
+    <t>2024-04-22T07:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:26:57+00:00</t>
+    <t>2024-04-22T07:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:52:09+00:00</t>
+    <t>2024-04-22T09:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T09:18:07+00:00</t>
+    <t>2024-04-22T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-admin-location</t>
+  </si>
+  <si>
+    <t>Type composant</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1127,6 +1130,13 @@
     <t>Extra information about the prescription that could not be conveyed by the other attributes.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:id}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Request.note</t>
   </si>
   <si>
@@ -1136,11 +1146,146 @@
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
   </si>
   <si>
-    <t>MedicationRequest.renderedDosageInstruction</t>
+    <t>MedicationRequest.note:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Libellé composant</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:description.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:description.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:description.author[x]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:description.time</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:description.text</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.text</t>
   </si>
   <si>
     <t xml:space="preserve">markdown
 </t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:comment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:comment.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:comment.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:comment.author[x]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:comment.time</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:comment.text</t>
+  </si>
+  <si>
+    <t>MedicationRequest.renderedDosageInstruction</t>
   </si>
   <si>
     <t>Full representation of the dosage instructions</t>
@@ -1197,6 +1342,483 @@
     <t>see dosageInstruction mapping</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneType.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>TQ1-1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>RXO-6; RXE-21</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"</t>
+  </si>
+  <si>
+    <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").</t>
+  </si>
+  <si>
+    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or take "immediately following drug x") should be populated in dosage.text.</t>
+  </si>
+  <si>
+    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>RXO-7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.asNeeded</t>
+  </si>
+  <si>
+    <t>Take "as needed"</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dos-1
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.asNeededFor</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken based on a precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededFor</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [http://hl7.org/fhir/StructureDefinition/bodySite](http://hl7.org/fhir/extensions/StructureDefinition-bodySite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration.methodCode</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>Amount of medication administered, to be administered or typical amount to be administered</t>
+  </si>
+  <si>
+    <t>Depending on the resource,this is the amount of medication administered, to  be administered or typical amount to be administered.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration.doseQuantity; SubstanceAdministration.RateQuantity</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
+  </si>
+  <si>
+    <t>If the type is not populated, assume to be "ordered".</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/dose-rate-type</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>Quantité composant prescrit</t>
+  </si>
+  <si>
+    <t>n/a,PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammar where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-23, RXE-19</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest</t>
   </si>
   <si>
@@ -1219,49 +1841,12 @@
     <t>MedicationRequest.dispenseRequest.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
@@ -1290,10 +1875,6 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
   </si>
   <si>
     <t>First fill quantity</t>
@@ -1508,6 +2089,15 @@
   </si>
   <si>
     <t>RXO-9 Allow Substitutions / RXE-9 Substitution Status</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedBoolean</t>
+  </si>
+  <si>
+    <t>allowedBoolean</t>
+  </si>
+  <si>
+    <t>Non Subsituable</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -1862,7 +2452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP65"/>
+  <dimension ref="A1:AP101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1871,9 +2461,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="68.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.27734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.5234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1895,11 +2485,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="97.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4087,13 +4677,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -4176,19 +4766,19 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>79</v>
@@ -4196,10 +4786,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4225,10 +4815,10 @@
         <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4258,10 +4848,10 @@
         <v>114</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4279,7 +4869,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4297,16 +4887,16 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -4314,10 +4904,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4340,16 +4930,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4399,7 +4989,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4426,7 +5016,7 @@
         <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4434,10 +5024,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4460,16 +5050,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4498,10 +5088,10 @@
         <v>194</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4519,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>90</v>
@@ -4537,27 +5127,27 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4580,16 +5170,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4639,7 +5229,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>90</v>
@@ -4657,27 +5247,27 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4700,13 +5290,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4757,7 +5347,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4784,7 +5374,7 @@
         <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4792,10 +5382,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4818,16 +5408,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4877,7 +5467,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4895,27 +5485,27 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4938,16 +5528,16 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4997,7 +5587,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5015,16 +5605,16 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -5032,10 +5622,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5061,10 +5651,10 @@
         <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5115,7 +5705,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5133,27 +5723,27 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5176,13 +5766,13 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5233,7 +5823,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5251,16 +5841,16 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5268,10 +5858,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5294,16 +5884,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5353,7 +5943,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5380,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5388,10 +5978,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5417,13 +6007,13 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5449,13 +6039,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5473,7 +6063,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5491,7 +6081,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5500,7 +6090,7 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5508,10 +6098,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5534,13 +6124,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5591,7 +6181,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5609,16 +6199,16 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -5626,10 +6216,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5652,13 +6242,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5709,7 +6299,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5736,7 +6326,7 @@
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
@@ -5744,10 +6334,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5770,13 +6360,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5827,7 +6417,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5851,10 +6441,10 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -5862,10 +6452,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5888,16 +6478,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5926,10 +6516,10 @@
         <v>194</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5947,7 +6537,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5965,27 +6555,27 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6011,13 +6601,13 @@
         <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6043,13 +6633,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6067,7 +6657,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6094,7 +6684,7 @@
         <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6102,10 +6692,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6128,13 +6718,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6185,7 +6775,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6203,7 +6793,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6212,7 +6802,7 @@
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -6220,10 +6810,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6231,13 +6821,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6246,13 +6836,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6291,19 +6881,17 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6321,16 +6909,16 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6338,18 +6926,20 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -6364,18 +6954,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6423,13 +7011,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6438,19 +7026,19 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -6461,7 +7049,7 @@
         <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6469,7 +7057,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6484,7 +7072,7 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>362</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>363</v>
@@ -6502,7 +7090,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -6541,7 +7129,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6550,10 +7138,10 @@
         <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6568,7 +7156,7 @@
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6576,14 +7164,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6602,16 +7190,16 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>141</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6649,19 +7237,19 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6673,7 +7261,7 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6688,7 +7276,7 @@
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6696,10 +7284,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6719,18 +7307,20 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6779,7 +7369,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6800,24 +7390,24 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6837,16 +7427,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6897,7 +7487,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6906,10 +7496,10 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6924,29 +7514,29 @@
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6955,20 +7545,18 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7017,19 +7605,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7044,54 +7632,52 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>138</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7139,7 +7725,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7151,22 +7737,22 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -7174,10 +7760,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7185,7 +7771,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
@@ -7200,17 +7786,15 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7220,7 +7804,7 @@
         <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>79</v>
@@ -7259,7 +7843,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7268,10 +7852,10 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7286,7 +7870,7 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7294,21 +7878,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7320,15 +7904,17 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7365,31 +7951,31 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7404,7 +7990,7 @@
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7412,21 +7998,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7435,19 +8021,19 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>139</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>141</v>
+        <v>379</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7497,19 +8083,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7524,54 +8110,50 @@
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7619,19 +8201,19 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7646,18 +8228,18 @@
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7665,7 +8247,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -7677,16 +8259,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7737,10 +8319,10 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -7764,18 +8346,18 @@
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7798,16 +8380,18 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7855,7 +8439,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7882,7 +8466,7 @@
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>79</v>
@@ -7890,10 +8474,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7916,13 +8500,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7973,7 +8557,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8000,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -8008,10 +8592,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8025,7 +8609,7 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
@@ -8034,7 +8618,7 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>415</v>
@@ -8045,9 +8629,7 @@
       <c r="N52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="O52" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8095,13 +8677,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -8116,13 +8698,13 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8130,10 +8712,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8156,17 +8738,15 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8215,7 +8795,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8224,10 +8804,10 @@
         <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8236,35 +8816,35 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8276,15 +8856,17 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8321,31 +8903,31 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8354,58 +8936,60 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8453,19 +9037,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8474,13 +9058,13 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8488,10 +9072,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8511,19 +9095,21 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8571,7 +9157,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8595,21 +9181,21 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8620,7 +9206,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8629,19 +9215,21 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8689,13 +9277,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8716,18 +9304,18 @@
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8738,7 +9326,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8747,19 +9335,23 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8785,9 +9377,11 @@
       <c r="X58" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y58" s="2"/>
+      <c r="Y58" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8805,13 +9399,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -8832,18 +9426,18 @@
         <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8863,16 +9457,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8923,7 +9517,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8944,24 +9538,24 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8981,19 +9575,23 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9041,7 +9639,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9050,10 +9648,10 @@
         <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9068,7 +9666,7 @@
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>384</v>
+        <v>461</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9076,21 +9674,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9099,19 +9697,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>139</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9161,19 +9759,19 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9188,22 +9786,22 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9216,26 +9814,24 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>390</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9259,13 +9855,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9283,7 +9879,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>392</v>
+        <v>476</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9292,10 +9888,10 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9310,18 +9906,18 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>135</v>
+        <v>468</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9329,7 +9925,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>90</v>
@@ -9341,21 +9937,23 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>464</v>
+        <v>190</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9379,13 +9977,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>468</v>
+        <v>194</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9403,10 +10001,10 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>90</v>
@@ -9424,24 +10022,24 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9461,19 +10059,21 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9500,10 +10100,10 @@
         <v>194</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9521,7 +10121,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9542,24 +10142,24 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9570,7 +10170,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9579,21 +10179,23 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>481</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9617,13 +10219,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9641,13 +10243,13 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
@@ -9659,7 +10261,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9668,14 +10270,4320 @@
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="AP65" t="s" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AC70" s="2"/>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y93" s="2"/>
+      <c r="Z93" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AC98" s="2"/>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AP101" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP65">
+  <autoFilter ref="A1:AP101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9685,7 +14593,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -527,7 +527,7 @@
     <t>A plan or request that is fulfilled in whole or in part by this medication request.</t>
   </si>
   <si>
-    <t>Lien classe ELEMENTPrescription</t>
+    <t>ELEMENT PRESCRIPTION</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>COMPOSANT</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -5124,30 +5127,30 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5170,16 +5173,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5229,7 +5232,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>90</v>
@@ -5247,27 +5250,27 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5290,13 +5293,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5347,7 +5350,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5374,7 +5377,7 @@
         <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -5382,10 +5385,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5408,16 +5411,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5467,7 +5470,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5485,27 +5488,27 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5528,16 +5531,16 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5587,7 +5590,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5605,16 +5608,16 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -5622,10 +5625,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5651,10 +5654,10 @@
         <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5705,7 +5708,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5723,27 +5726,27 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5766,13 +5769,13 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5823,7 +5826,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5841,16 +5844,16 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5858,10 +5861,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5887,13 +5890,13 @@
         <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5943,7 +5946,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5970,7 +5973,7 @@
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5978,10 +5981,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6007,13 +6010,13 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6039,13 +6042,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -6063,7 +6066,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -6081,7 +6084,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -6090,7 +6093,7 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -6098,10 +6101,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6124,13 +6127,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6181,7 +6184,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6199,16 +6202,16 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -6216,10 +6219,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6242,13 +6245,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6299,7 +6302,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6326,7 +6329,7 @@
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
@@ -6334,10 +6337,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6360,13 +6363,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6417,7 +6420,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6441,10 +6444,10 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -6452,10 +6455,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6478,16 +6481,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6516,10 +6519,10 @@
         <v>194</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6537,7 +6540,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6555,27 +6558,27 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6601,13 +6604,13 @@
         <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6633,13 +6636,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6657,7 +6660,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6684,7 +6687,7 @@
         <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6692,10 +6695,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6718,13 +6721,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6775,7 +6778,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6793,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -6810,10 +6813,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6836,13 +6839,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6881,17 +6884,17 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6909,16 +6912,16 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6926,13 +6929,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>79</v>
@@ -6954,13 +6957,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7011,7 +7014,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -7026,19 +7029,19 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -7046,10 +7049,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7075,10 +7078,10 @@
         <v>92</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7090,7 +7093,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -7129,7 +7132,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7138,7 +7141,7 @@
         <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -7156,7 +7159,7 @@
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -7164,10 +7167,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7196,7 +7199,7 @@
         <v>139</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>141</v>
@@ -7237,19 +7240,19 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7276,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -7284,10 +7287,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7310,16 +7313,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7369,7 +7372,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7396,7 +7399,7 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>135</v>
@@ -7404,10 +7407,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7433,10 +7436,10 @@
         <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7487,7 +7490,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7514,7 +7517,7 @@
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>135</v>
@@ -7522,10 +7525,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7548,13 +7551,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7605,7 +7608,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>90</v>
@@ -7632,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>135</v>
@@ -7640,13 +7643,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>79</v>
@@ -7668,13 +7671,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7725,7 +7728,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7740,19 +7743,19 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -7760,10 +7763,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7789,10 +7792,10 @@
         <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7804,7 +7807,7 @@
         <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>79</v>
@@ -7843,7 +7846,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7852,7 +7855,7 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7870,7 +7873,7 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7878,10 +7881,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7910,7 +7913,7 @@
         <v>139</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>141</v>
@@ -7951,19 +7954,19 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7990,7 +7993,7 @@
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7998,10 +8001,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8024,16 +8027,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8083,7 +8086,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -8110,7 +8113,7 @@
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>135</v>
@@ -8118,10 +8121,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8147,10 +8150,10 @@
         <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8201,7 +8204,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8228,7 +8231,7 @@
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>135</v>
@@ -8236,10 +8239,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8262,13 +8265,13 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8319,7 +8322,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>90</v>
@@ -8346,7 +8349,7 @@
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>135</v>
@@ -8354,10 +8357,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8380,17 +8383,17 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -8439,7 +8442,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8466,7 +8469,7 @@
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>79</v>
@@ -8474,10 +8477,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8500,13 +8503,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8557,7 +8560,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8584,7 +8587,7 @@
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -8592,10 +8595,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8618,16 +8621,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8677,7 +8680,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8704,7 +8707,7 @@
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8712,10 +8715,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8741,10 +8744,10 @@
         <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8795,7 +8798,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8804,7 +8807,7 @@
         <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8822,7 +8825,7 @@
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -8830,10 +8833,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8862,7 +8865,7 @@
         <v>139</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>141</v>
@@ -8903,19 +8906,19 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8942,7 +8945,7 @@
         <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8950,14 +8953,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8979,10 +8982,10 @@
         <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>141</v>
@@ -9037,7 +9040,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -9072,10 +9075,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9098,17 +9101,17 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9157,7 +9160,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9184,18 +9187,18 @@
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9218,17 +9221,17 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9277,7 +9280,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9304,18 +9307,18 @@
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9341,16 +9344,16 @@
         <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9378,10 +9381,10 @@
         <v>194</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9399,7 +9402,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9426,18 +9429,18 @@
         <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9460,13 +9463,13 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9517,7 +9520,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9544,18 +9547,18 @@
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9578,19 +9581,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9639,7 +9642,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9666,7 +9669,7 @@
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9674,10 +9677,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9703,13 +9706,13 @@
         <v>231</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9759,7 +9762,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9768,7 +9771,7 @@
         <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
@@ -9786,18 +9789,18 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9823,13 +9826,13 @@
         <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9858,10 +9861,10 @@
         <v>194</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9879,7 +9882,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9888,7 +9891,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>102</v>
@@ -9906,18 +9909,18 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9943,16 +9946,16 @@
         <v>190</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9980,10 +9983,10 @@
         <v>194</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -10001,7 +10004,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -10028,18 +10031,18 @@
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10065,14 +10068,14 @@
         <v>190</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -10100,10 +10103,10 @@
         <v>194</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -10121,7 +10124,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -10148,18 +10151,18 @@
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10185,16 +10188,16 @@
         <v>190</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10222,10 +10225,10 @@
         <v>194</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10243,7 +10246,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10270,18 +10273,18 @@
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10304,13 +10307,13 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10361,7 +10364,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10388,18 +10391,18 @@
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10422,13 +10425,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10479,7 +10482,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10488,7 +10491,7 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10506,7 +10509,7 @@
         <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>79</v>
@@ -10514,10 +10517,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10546,7 +10549,7 @@
         <v>139</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>141</v>
@@ -10587,19 +10590,19 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10626,7 +10629,7 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10634,10 +10637,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10663,14 +10666,14 @@
         <v>190</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10698,10 +10701,10 @@
         <v>194</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10719,7 +10722,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10749,15 +10752,15 @@
         <v>79</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10780,19 +10783,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10829,17 +10832,17 @@
         <v>79</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10866,21 +10869,21 @@
         <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>79</v>
@@ -10902,19 +10905,19 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10963,7 +10966,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10975,10 +10978,10 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -10990,18 +10993,18 @@
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11024,19 +11027,19 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -11085,7 +11088,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -11112,18 +11115,18 @@
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11146,19 +11149,19 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11207,7 +11210,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11234,18 +11237,18 @@
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11268,19 +11271,19 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11329,7 +11332,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11356,7 +11359,7 @@
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>79</v>
@@ -11364,10 +11367,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11390,17 +11393,17 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11449,7 +11452,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11476,7 +11479,7 @@
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -11484,10 +11487,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11510,13 +11513,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11567,7 +11570,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11588,13 +11591,13 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>79</v>
@@ -11602,10 +11605,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11628,13 +11631,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11685,7 +11688,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11694,7 +11697,7 @@
         <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11712,7 +11715,7 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11720,10 +11723,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11752,7 +11755,7 @@
         <v>139</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>141</v>
@@ -11805,7 +11808,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11832,7 +11835,7 @@
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11840,14 +11843,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11869,10 +11872,10 @@
         <v>138</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>141</v>
@@ -11927,7 +11930,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11962,10 +11965,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11988,16 +11991,16 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12047,7 +12050,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -12074,7 +12077,7 @@
         <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>79</v>
@@ -12082,10 +12085,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12108,13 +12111,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12165,7 +12168,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -12174,7 +12177,7 @@
         <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -12192,7 +12195,7 @@
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>79</v>
@@ -12200,10 +12203,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12232,7 +12235,7 @@
         <v>139</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>141</v>
@@ -12285,7 +12288,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12312,7 +12315,7 @@
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -12320,14 +12323,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12349,10 +12352,10 @@
         <v>138</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>141</v>
@@ -12407,7 +12410,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12442,10 +12445,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12468,13 +12471,13 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12525,7 +12528,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12552,7 +12555,7 @@
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -12560,10 +12563,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12586,13 +12589,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12643,7 +12646,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12670,7 +12673,7 @@
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>79</v>
@@ -12678,10 +12681,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12704,13 +12707,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12761,7 +12764,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12788,7 +12791,7 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>79</v>
@@ -12796,10 +12799,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12822,19 +12825,19 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12883,7 +12886,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12904,13 +12907,13 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>79</v>
@@ -12918,10 +12921,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12944,16 +12947,16 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13003,7 +13006,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -13024,24 +13027,24 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13064,13 +13067,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13121,7 +13124,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -13142,24 +13145,24 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13182,16 +13185,16 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13241,7 +13244,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13262,13 +13265,13 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>79</v>
@@ -13276,10 +13279,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13302,13 +13305,13 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13359,7 +13362,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -13383,10 +13386,10 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>79</v>
@@ -13394,10 +13397,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13420,13 +13423,13 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13477,7 +13480,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -13504,7 +13507,7 @@
         <v>79</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>79</v>
@@ -13512,10 +13515,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13541,10 +13544,10 @@
         <v>190</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13575,7 +13578,7 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13593,7 +13596,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13620,7 +13623,7 @@
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>79</v>
@@ -13628,10 +13631,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13654,13 +13657,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13711,7 +13714,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13732,13 +13735,13 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>79</v>
@@ -13746,10 +13749,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13772,13 +13775,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13829,7 +13832,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13838,7 +13841,7 @@
         <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
@@ -13856,7 +13859,7 @@
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>79</v>
@@ -13864,10 +13867,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13896,7 +13899,7 @@
         <v>139</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>141</v>
@@ -13949,7 +13952,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13976,7 +13979,7 @@
         <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>79</v>
@@ -13984,14 +13987,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14013,10 +14016,10 @@
         <v>138</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>141</v>
@@ -14071,7 +14074,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -14106,10 +14109,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14132,16 +14135,16 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14167,29 +14170,29 @@
         <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>90</v>
@@ -14210,27 +14213,27 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>79</v>
@@ -14255,13 +14258,13 @@
         <v>231</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14311,7 +14314,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>90</v>
@@ -14326,30 +14329,30 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14375,10 +14378,10 @@
         <v>190</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14408,10 +14411,10 @@
         <v>194</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>79</v>
@@ -14429,7 +14432,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14456,18 +14459,18 @@
         <v>79</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14490,16 +14493,16 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14549,7 +14552,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14567,7 +14570,7 @@
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
@@ -14576,7 +14579,7 @@
         <v>79</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>79</v>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$109</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="695">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,38 +443,68 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:oncofair-mr-component-exoneratingald</t>
+  </si>
+  <si>
+    <t>oncofair-mr-component-exoneratingald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-mr-component-exoneratingald}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre d'OncoFAIR</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:oncofair-mr-component-solute</t>
+  </si>
+  <si>
+    <t>oncofair-mr-component-solute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-mr-component-solute}
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
@@ -701,9 +731,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-admin-location</t>
-  </si>
-  <si>
-    <t>Type composant</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1137,9 +1164,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Request.note</t>
   </si>
   <si>
@@ -1186,11 +1210,10 @@
     <t>MedicationRequest.note.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1286,6 +1309,30 @@
   </si>
   <si>
     <t>MedicationRequest.note:comment.text</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:indication</t>
+  </si>
+  <si>
+    <t>indication</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:indication.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:indication.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:indication.author[x]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:indication.time</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note:indication.text</t>
   </si>
   <si>
     <t>MedicationRequest.renderedDosageInstruction</t>
@@ -1667,8 +1714,8 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
   </si>
   <si>
     <t>Amount of medication per dose</t>
@@ -1687,6 +1734,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
@@ -1700,10 +1750,6 @@
   </si>
   <si>
     <t>doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
   </si>
   <si>
     <t>A fixed quantity (no comparator)</t>
@@ -2455,7 +2501,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP101"/>
+  <dimension ref="A1:AP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2466,7 +2512,7 @@
   <cols>
     <col min="1" max="1" width="68.80078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="37.23828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3480,7 +3526,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3499,17 +3545,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -3546,16 +3590,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>142</v>
@@ -3585,7 +3627,7 @@
         <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>79</v>
@@ -3596,43 +3638,41 @@
         <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3680,7 +3720,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3707,7 +3747,7 @@
         <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>79</v>
@@ -3715,12 +3755,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3729,7 +3771,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3744,14 +3786,12 @@
         <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3800,7 +3840,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3812,65 +3852,69 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3918,7 +3962,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3930,13 +3974,13 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3945,7 +3989,7 @@
         <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>79</v>
@@ -3953,10 +3997,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3967,7 +4011,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3979,15 +4023,17 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -4036,13 +4082,13 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
@@ -4054,27 +4100,27 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4082,13 +4128,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
@@ -4097,18 +4143,16 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -4156,13 +4200,13 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -4171,10 +4215,10 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -4183,7 +4227,7 @@
         <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -4191,10 +4235,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4202,7 +4246,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
@@ -4211,23 +4255,21 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -4252,13 +4294,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -4276,10 +4318,10 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>90</v>
@@ -4294,16 +4336,16 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -4311,10 +4353,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4334,21 +4376,21 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4372,13 +4414,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -4396,7 +4438,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -4414,7 +4456,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4423,7 +4465,7 @@
         <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>79</v>
@@ -4431,10 +4473,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4442,7 +4484,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -4451,21 +4493,23 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4490,13 +4534,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -4514,10 +4558,10 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -4532,16 +4576,16 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>79</v>
@@ -4549,10 +4593,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4560,7 +4604,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4569,22 +4613,22 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4610,13 +4654,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4634,10 +4678,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4652,16 +4696,16 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>79</v>
@@ -4669,10 +4713,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4680,13 +4724,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -4695,17 +4739,15 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4730,13 +4772,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4754,13 +4796,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -4769,19 +4811,19 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>79</v>
@@ -4789,10 +4831,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4800,7 +4842,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4809,7 +4851,7 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>91</v>
@@ -4818,12 +4860,14 @@
         <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4851,10 +4895,10 @@
         <v>114</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4872,10 +4916,10 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>90</v>
@@ -4890,16 +4934,16 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -4907,10 +4951,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4921,28 +4965,28 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4968,13 +5012,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4992,13 +5036,13 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -5013,13 +5057,13 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -5027,10 +5071,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5038,13 +5082,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
@@ -5053,17 +5097,15 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -5088,13 +5130,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -5112,10 +5154,10 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>90</v>
@@ -5127,30 +5169,30 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5158,7 +5200,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -5167,22 +5209,22 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5232,10 +5274,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -5250,27 +5292,27 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5278,30 +5320,32 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -5326,13 +5370,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -5350,13 +5394,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -5365,30 +5409,30 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5396,7 +5440,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -5408,19 +5452,19 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5470,10 +5514,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -5488,27 +5532,27 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5531,17 +5575,15 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5590,7 +5632,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5608,16 +5650,16 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -5625,10 +5667,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5648,18 +5690,20 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5708,7 +5752,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5726,27 +5770,27 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5757,7 +5801,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5766,18 +5810,20 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5826,13 +5872,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -5844,16 +5890,16 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5861,10 +5907,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5887,17 +5933,15 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5946,7 +5990,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5964,27 +6008,27 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6007,17 +6051,15 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -6042,13 +6084,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -6066,7 +6108,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -6084,16 +6126,16 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -6101,10 +6143,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6115,7 +6157,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -6124,18 +6166,20 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6184,13 +6228,13 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
@@ -6202,16 +6246,16 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -6219,10 +6263,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6233,7 +6277,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6242,18 +6286,20 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6278,13 +6324,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -6302,13 +6348,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -6320,7 +6366,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6329,7 +6375,7 @@
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
@@ -6337,10 +6383,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6351,7 +6397,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6363,13 +6409,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6420,13 +6466,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -6438,16 +6484,16 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -6455,10 +6501,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6481,17 +6527,15 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6516,13 +6560,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6540,7 +6584,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6558,27 +6602,27 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6601,17 +6645,15 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6636,13 +6678,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6660,7 +6702,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6684,10 +6726,10 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6695,10 +6737,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6721,15 +6763,17 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6754,13 +6798,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6778,7 +6822,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6796,27 +6840,27 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6824,13 +6868,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6839,15 +6883,17 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>351</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6872,35 +6918,37 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -6912,16 +6960,16 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6929,23 +6977,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6957,13 +7003,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7014,7 +7060,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -7029,19 +7075,19 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -7049,10 +7095,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7063,10 +7109,10 @@
         <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
@@ -7075,13 +7121,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7093,7 +7139,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -7120,46 +7166,44 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -7167,21 +7211,23 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -7193,17 +7239,15 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7240,19 +7284,19 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7264,22 +7308,22 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -7287,10 +7331,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7298,7 +7342,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7310,20 +7354,18 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7333,7 +7375,7 @@
         <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>79</v>
@@ -7372,7 +7414,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7381,10 +7423,10 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7399,29 +7441,29 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7430,18 +7472,20 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7478,31 +7522,31 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7517,18 +7561,18 @@
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7536,7 +7580,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
@@ -7551,15 +7595,17 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7608,10 +7654,10 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>90</v>
@@ -7635,7 +7681,7 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>135</v>
@@ -7643,14 +7689,12 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7668,16 +7712,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7728,13 +7772,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7743,30 +7787,30 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7786,16 +7830,16 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>92</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7807,7 +7851,7 @@
         <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>79</v>
@@ -7846,19 +7890,19 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7873,29 +7917,31 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7907,17 +7953,15 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7954,19 +7998,19 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7978,22 +8022,22 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -8001,10 +8045,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8012,7 +8056,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>90</v>
@@ -8024,20 +8068,18 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -8047,7 +8089,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -8086,7 +8128,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -8095,10 +8137,10 @@
         <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -8113,29 +8155,29 @@
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -8144,18 +8186,20 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8192,31 +8236,31 @@
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -8231,18 +8275,18 @@
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8250,7 +8294,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -8265,15 +8309,17 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8322,10 +8368,10 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -8349,7 +8395,7 @@
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>135</v>
@@ -8357,10 +8403,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8380,21 +8426,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8442,7 +8486,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8469,18 +8513,18 @@
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8488,7 +8532,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
@@ -8500,16 +8544,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8560,10 +8604,10 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>90</v>
@@ -8587,20 +8631,22 @@
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8612,7 +8658,7 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
@@ -8621,17 +8667,15 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8680,7 +8724,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8695,19 +8739,19 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8715,10 +8759,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8726,7 +8770,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>90</v>
@@ -8744,10 +8788,10 @@
         <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8759,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>79</v>
@@ -8798,7 +8842,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8807,7 +8851,7 @@
         <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8825,7 +8869,7 @@
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -8833,14 +8877,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8859,16 +8903,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>139</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8906,19 +8950,19 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>372</v>
+        <v>140</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8945,7 +8989,7 @@
         <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8953,46 +8997,44 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -9040,19 +9082,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -9067,18 +9109,18 @@
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9101,18 +9143,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>428</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -9160,7 +9200,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9187,18 +9227,18 @@
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>434</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9206,7 +9246,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -9221,18 +9261,16 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9280,10 +9318,10 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>90</v>
@@ -9307,18 +9345,18 @@
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>441</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9329,7 +9367,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9338,22 +9376,20 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>398</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9378,13 +9414,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9402,13 +9438,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -9429,18 +9465,18 @@
         <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9460,16 +9496,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9520,7 +9556,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9547,18 +9583,18 @@
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9572,29 +9608,27 @@
         <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9642,13 +9676,13 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
@@ -9669,7 +9703,7 @@
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9677,10 +9711,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9700,20 +9734,18 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9762,7 +9794,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9771,10 +9803,10 @@
         <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9789,22 +9821,22 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>469</v>
+        <v>375</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9820,19 +9852,19 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>474</v>
+        <v>155</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9858,31 +9890,31 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>381</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9891,10 +9923,10 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9909,53 +9941,53 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>469</v>
+        <v>375</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>481</v>
+        <v>155</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>482</v>
+        <v>156</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9980,13 +10012,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -10004,19 +10036,19 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -10031,18 +10063,18 @@
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>486</v>
+        <v>135</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>488</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10065,17 +10097,17 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>190</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -10100,13 +10132,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -10124,7 +10156,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -10151,18 +10183,18 @@
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10185,19 +10217,17 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>190</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10222,13 +10252,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10246,7 +10276,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10273,18 +10303,18 @@
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>506</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10295,7 +10325,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10307,16 +10337,20 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>508</v>
+        <v>199</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10340,13 +10374,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10364,7 +10398,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10391,18 +10425,18 @@
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>513</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10422,16 +10456,16 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>365</v>
+        <v>468</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10482,7 +10516,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>366</v>
+        <v>469</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10491,10 +10525,10 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10509,29 +10543,29 @@
         <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10540,21 +10574,23 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>138</v>
+        <v>471</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>139</v>
+        <v>472</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10590,31 +10626,31 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>374</v>
+        <v>476</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10629,7 +10665,7 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10637,10 +10673,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10663,18 +10699,18 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10698,13 +10734,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10722,7 +10758,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10731,7 +10767,7 @@
         <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>102</v>
@@ -10749,18 +10785,18 @@
         <v>79</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>523</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10771,7 +10807,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10783,20 +10819,18 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>525</v>
+        <v>199</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10820,38 +10854,40 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AC70" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>102</v>
@@ -10869,22 +10905,20 @@
         <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>533</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>534</v>
+        <v>493</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10902,22 +10936,22 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>536</v>
+        <v>199</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10942,13 +10976,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10966,7 +11000,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10978,10 +11012,10 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>540</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -10993,18 +11027,18 @@
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>543</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11027,19 +11061,17 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>545</v>
+        <v>199</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -11064,13 +11096,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -11088,7 +11120,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -11115,18 +11147,18 @@
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>552</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11137,7 +11169,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -11149,19 +11181,19 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>554</v>
+        <v>199</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11186,13 +11218,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -11210,13 +11242,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -11237,18 +11269,18 @@
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>561</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11271,20 +11303,16 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11332,13 +11360,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>567</v>
+        <v>526</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -11359,18 +11387,18 @@
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11390,21 +11418,19 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>536</v>
+        <v>451</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>570</v>
+        <v>371</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>571</v>
+        <v>372</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>572</v>
-      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11452,7 +11478,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>573</v>
+        <v>373</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11461,10 +11487,10 @@
         <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11479,7 +11505,7 @@
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>568</v>
+        <v>375</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -11487,21 +11513,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11513,15 +11539,17 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>575</v>
+        <v>137</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>576</v>
+        <v>378</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11558,31 +11586,31 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>574</v>
+        <v>381</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11591,13 +11619,13 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>579</v>
+        <v>375</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>79</v>
@@ -11605,10 +11633,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11628,19 +11656,21 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>436</v>
+        <v>199</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>364</v>
+        <v>532</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>365</v>
+        <v>533</v>
       </c>
       <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11664,13 +11694,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11688,7 +11718,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>366</v>
+        <v>537</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11697,10 +11727,10 @@
         <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11715,29 +11745,29 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11746,21 +11776,23 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>138</v>
+        <v>540</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>139</v>
+        <v>541</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>371</v>
+        <v>542</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11796,31 +11828,29 @@
         <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>374</v>
+        <v>547</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11835,53 +11865,55 @@
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>368</v>
+        <v>548</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="D79" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>138</v>
+        <v>540</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>424</v>
+        <v>552</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>425</v>
+        <v>553</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>141</v>
+        <v>554</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>147</v>
+        <v>544</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11930,22 +11962,22 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>143</v>
+        <v>555</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
@@ -11957,18 +11989,18 @@
         <v>79</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>135</v>
+        <v>557</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11988,21 +12020,23 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -12050,7 +12084,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -12077,18 +12111,18 @@
         <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12099,7 +12133,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -12108,19 +12142,23 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>436</v>
+        <v>569</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>364</v>
+        <v>570</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
       </c>
@@ -12168,19 +12206,19 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>366</v>
+        <v>574</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -12195,29 +12233,29 @@
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>368</v>
+        <v>575</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -12226,21 +12264,23 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>138</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>139</v>
+        <v>578</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>371</v>
+        <v>579</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12288,19 +12328,19 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>374</v>
+        <v>582</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12315,7 +12355,7 @@
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>368</v>
+        <v>583</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -12323,45 +12363,43 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>138</v>
+        <v>540</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>424</v>
+        <v>585</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>147</v>
+        <v>587</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12410,34 +12448,34 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -12445,10 +12483,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12471,13 +12509,13 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12528,7 +12566,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12549,13 +12587,13 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -12563,10 +12601,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12589,13 +12627,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>597</v>
+        <v>451</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>598</v>
+        <v>371</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>599</v>
+        <v>372</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12646,7 +12684,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>596</v>
+        <v>373</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12655,10 +12693,10 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12673,7 +12711,7 @@
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>79</v>
@@ -12681,21 +12719,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12707,15 +12745,17 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>597</v>
+        <v>137</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>602</v>
+        <v>378</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12764,19 +12804,19 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>601</v>
+        <v>381</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12791,7 +12831,7 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>79</v>
@@ -12799,45 +12839,45 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>410</v>
+        <v>137</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>605</v>
+        <v>439</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>606</v>
+        <v>440</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>607</v>
+        <v>155</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>608</v>
+        <v>156</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12886,19 +12926,19 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
@@ -12907,13 +12947,13 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>610</v>
+        <v>135</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>79</v>
@@ -12921,10 +12961,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12947,16 +12987,16 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13006,7 +13046,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -13027,24 +13067,24 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>618</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13067,13 +13107,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>536</v>
+        <v>451</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>620</v>
+        <v>371</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>621</v>
+        <v>372</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13124,7 +13164,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>619</v>
+        <v>373</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -13133,10 +13173,10 @@
         <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
@@ -13145,35 +13185,35 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>622</v>
+        <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>623</v>
+        <v>375</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>624</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -13185,16 +13225,16 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>597</v>
+        <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>626</v>
+        <v>378</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>627</v>
+        <v>379</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>628</v>
+        <v>155</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13244,19 +13284,19 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>625</v>
+        <v>381</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -13265,13 +13305,13 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>629</v>
+        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>630</v>
+        <v>375</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>79</v>
@@ -13279,42 +13319,46 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>632</v>
+        <v>137</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>633</v>
+        <v>439</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
       </c>
@@ -13362,19 +13406,19 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -13386,10 +13430,10 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>635</v>
+        <v>135</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>79</v>
@@ -13397,10 +13441,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13411,7 +13455,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -13423,13 +13467,13 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>351</v>
+        <v>540</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13480,13 +13524,13 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
@@ -13507,7 +13551,7 @@
         <v>79</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>79</v>
@@ -13515,10 +13559,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13541,13 +13585,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>190</v>
+        <v>612</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13574,11 +13618,13 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y93" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z93" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13596,7 +13642,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13623,7 +13669,7 @@
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>644</v>
+        <v>615</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>79</v>
@@ -13631,10 +13677,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13648,7 +13694,7 @@
         <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>79</v>
@@ -13657,13 +13703,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>647</v>
+        <v>618</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13714,7 +13760,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13735,13 +13781,13 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>79</v>
@@ -13749,10 +13795,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13775,16 +13821,20 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>364</v>
+        <v>620</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13832,7 +13882,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>366</v>
+        <v>619</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13841,10 +13891,10 @@
         <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
@@ -13853,13 +13903,13 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>79</v>
+        <v>624</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>368</v>
+        <v>625</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>79</v>
@@ -13867,21 +13917,21 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13893,16 +13943,16 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>138</v>
+        <v>627</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>139</v>
+        <v>628</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>371</v>
+        <v>629</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>141</v>
+        <v>630</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13952,19 +14002,19 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>374</v>
+        <v>626</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
@@ -13973,60 +14023,56 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>368</v>
+        <v>632</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>79</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>138</v>
+        <v>540</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>424</v>
+        <v>635</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>79</v>
       </c>
@@ -14074,19 +14120,19 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
@@ -14095,24 +14141,24 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>135</v>
+        <v>638</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>79</v>
+        <v>639</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14120,7 +14166,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -14135,16 +14181,16 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14170,32 +14216,34 @@
         <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>658</v>
+        <v>79</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>660</v>
+        <v>79</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AC98" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>90</v>
@@ -14213,28 +14261,26 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>662</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>79</v>
       </c>
@@ -14255,17 +14301,15 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>231</v>
+        <v>647</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -14314,10 +14358,10 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>90</v>
@@ -14329,30 +14373,30 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>662</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14363,7 +14407,7 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
@@ -14375,13 +14419,13 @@
         <v>79</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>190</v>
+        <v>359</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14408,13 +14452,13 @@
         <v>79</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>669</v>
+        <v>79</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>670</v>
+        <v>79</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>79</v>
@@ -14432,13 +14476,13 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>79</v>
@@ -14453,24 +14497,24 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>672</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14481,7 +14525,7 @@
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
@@ -14493,17 +14537,15 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>674</v>
+        <v>199</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14528,13 +14570,11 @@
         <v>79</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>79</v>
@@ -14552,13 +14592,13 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>79</v>
@@ -14570,23 +14610,979 @@
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AC106" s="2"/>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO101" t="s" s="2">
+      <c r="B107" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="AP101" t="s" s="2">
+      <c r="D107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP101">
+  <autoFilter ref="A1:AP109">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14596,7 +15592,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
